--- a/template_excel/contoh_data_siswa_2.xlsx
+++ b/template_excel/contoh_data_siswa_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8340"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>nis</t>
   </si>
@@ -80,10 +80,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>Sandi</t>
-  </si>
-  <si>
-    <t>sandi</t>
+    <t>sami</t>
   </si>
   <si>
     <t>laki-laki</t>
@@ -92,13 +89,13 @@
     <t>Batang</t>
   </si>
   <si>
-    <t>jl waringin</t>
+    <t>jl bawang</t>
   </si>
   <si>
     <t>08996961794</t>
   </si>
   <si>
-    <t>sandi@gmail.com</t>
+    <t>sami@gmail.com</t>
   </si>
   <si>
     <t>rick</t>
@@ -107,7 +104,7 @@
     <t>judith</t>
   </si>
   <si>
-    <t>sd dummy 1</t>
+    <t>SDN 1 Batang</t>
   </si>
   <si>
     <t>aktif</t>
@@ -116,16 +113,13 @@
     <t>petunjuk</t>
   </si>
   <si>
-    <t>Dewo</t>
-  </si>
-  <si>
-    <t>dewo</t>
+    <t>mawon</t>
   </si>
   <si>
     <t>08996961994</t>
   </si>
   <si>
-    <t>dewo@gmail.com</t>
+    <t>mawon@gmail.com</t>
   </si>
   <si>
     <t>kolom</t>
@@ -1544,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1628,40 +1622,40 @@
     </row>
     <row r="2" ht="28.8" spans="1:21">
       <c r="A2" s="1">
-        <v>20083</v>
+        <v>20113</v>
       </c>
       <c r="B2" s="1">
-        <v>99000083</v>
+        <v>99000113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>41791</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M2" s="1">
         <v>10000000</v>
@@ -1670,56 +1664,56 @@
         <v>11111</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="Q2" s="1">
         <v>123</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="6"/>
     </row>
     <row r="3" ht="28.8" spans="1:21">
       <c r="A3" s="1">
-        <v>20084</v>
+        <v>20114</v>
       </c>
       <c r="B3" s="1">
-        <v>99000084</v>
+        <v>99000114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>41791</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M3" s="1">
         <v>10000000</v>
@@ -1728,22 +1722,22 @@
         <v>222222</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="Q3" s="1">
         <v>123</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1771,7 +1765,7 @@
         <v>20001</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1799,7 +1793,7 @@
         <v>99000001</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="19:21">
@@ -1807,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="19:21">
@@ -1818,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="19:21">
@@ -1829,10 +1823,10 @@
         <v>4</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="19:21">
@@ -1840,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U9" s="7"/>
     </row>
@@ -1852,7 +1846,7 @@
         <v>38108</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="19:21">
@@ -1860,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U11" s="7"/>
     </row>
@@ -1869,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="19:21">
@@ -1880,10 +1874,10 @@
         <v>9</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="19:21">
@@ -1891,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U14" s="7"/>
     </row>
@@ -1900,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U15" s="7"/>
     </row>
@@ -1912,7 +1906,7 @@
         <v>5000000</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="19:21">
@@ -1923,7 +1917,7 @@
         <v>5000000</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="19:21">
@@ -1931,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U18" s="7"/>
     </row>
@@ -1940,10 +1934,10 @@
         <v>15</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="19:21">
@@ -1951,10 +1945,10 @@
         <v>16</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1962,8 +1956,8 @@
     <mergeCell ref="S2:U2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId2" display="sandi@gmail.com" tooltip="mailto:sandi@gmail.com"/>
-    <hyperlink ref="J3" r:id="rId3" display="dewo@gmail.com" tooltip="mailto:dewo@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId2" display="sami@gmail.com" tooltip="mailto:sami@gmail.com"/>
+    <hyperlink ref="J3" r:id="rId3" display="mawon@gmail.com" tooltip="mailto:mawon@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
